--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/a-Atrn.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/a-Atrn.xlsx
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Atrn</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>Atrn</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -528,25 +528,25 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.02391833333333333</v>
+        <v>0.344207</v>
       </c>
       <c r="H2">
-        <v>0.071755</v>
+        <v>1.032621</v>
       </c>
       <c r="I2">
-        <v>0.06497334241236681</v>
+        <v>0.6985282229833164</v>
       </c>
       <c r="J2">
-        <v>0.06497334241236681</v>
+        <v>0.6985282229833165</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.48570233333333</v>
+        <v>9.579981</v>
       </c>
       <c r="N2">
-        <v>31.457107</v>
+        <v>28.739943</v>
       </c>
       <c r="O2">
-        <v>0.3451069547070303</v>
+        <v>0.2856968652430823</v>
       </c>
       <c r="P2">
-        <v>0.3451069547070303</v>
+        <v>0.2856968652430823</v>
       </c>
       <c r="Q2">
-        <v>0.2508005236427778</v>
+        <v>3.297496520067</v>
       </c>
       <c r="R2">
-        <v>2.257204712785</v>
+        <v>29.677468680603</v>
       </c>
       <c r="S2">
-        <v>0.02242275233706904</v>
+        <v>0.1995673235901543</v>
       </c>
       <c r="T2">
-        <v>0.02242275233706904</v>
+        <v>0.1995673235901543</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,25 +590,25 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.02391833333333333</v>
+        <v>0.344207</v>
       </c>
       <c r="H3">
-        <v>0.071755</v>
+        <v>1.032621</v>
       </c>
       <c r="I3">
-        <v>0.06497334241236681</v>
+        <v>0.6985282229833164</v>
       </c>
       <c r="J3">
-        <v>0.06497334241236681</v>
+        <v>0.6985282229833165</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>28.98719699999999</v>
       </c>
       <c r="O3">
-        <v>0.3180102760931818</v>
+        <v>0.2881547578255002</v>
       </c>
       <c r="P3">
-        <v>0.3180102760931818</v>
+        <v>0.2881547578255002</v>
       </c>
       <c r="Q3">
-        <v>0.2311084800816667</v>
+        <v>3.325865372592999</v>
       </c>
       <c r="R3">
-        <v>2.079976320735</v>
+        <v>29.932788353337</v>
       </c>
       <c r="S3">
-        <v>0.02066219055925361</v>
+        <v>0.2012842309280345</v>
       </c>
       <c r="T3">
-        <v>0.02066219055925361</v>
+        <v>0.2012842309280345</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,25 +652,25 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.02391833333333333</v>
+        <v>0.344207</v>
       </c>
       <c r="H4">
-        <v>0.071755</v>
+        <v>1.032621</v>
       </c>
       <c r="I4">
-        <v>0.06497334241236681</v>
+        <v>0.6985282229833164</v>
       </c>
       <c r="J4">
-        <v>0.06497334241236681</v>
+        <v>0.6985282229833165</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.719997666666665</v>
+        <v>9.479142000000001</v>
       </c>
       <c r="N4">
-        <v>17.159993</v>
+        <v>28.437426</v>
       </c>
       <c r="O4">
-        <v>0.1882573921061449</v>
+        <v>0.2826896164610391</v>
       </c>
       <c r="P4">
-        <v>0.1882573921061449</v>
+        <v>0.2826896164610391</v>
       </c>
       <c r="Q4">
-        <v>0.1368128108572222</v>
+        <v>3.262787030394</v>
       </c>
       <c r="R4">
-        <v>1.231315297715</v>
+        <v>29.365083273546</v>
       </c>
       <c r="S4">
-        <v>0.01223171199897175</v>
+        <v>0.1974666754423649</v>
       </c>
       <c r="T4">
-        <v>0.01223171199897175</v>
+        <v>0.1974666754423649</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.02391833333333333</v>
+        <v>0.344207</v>
       </c>
       <c r="H5">
-        <v>0.071755</v>
+        <v>1.032621</v>
       </c>
       <c r="I5">
-        <v>0.06497334241236681</v>
+        <v>0.6985282229833164</v>
       </c>
       <c r="J5">
-        <v>0.06497334241236681</v>
+        <v>0.6985282229833165</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.515821666666667</v>
+        <v>4.810455999999999</v>
       </c>
       <c r="N5">
-        <v>13.547465</v>
+        <v>14.431368</v>
       </c>
       <c r="O5">
-        <v>0.148625377093643</v>
+        <v>0.1434587604703784</v>
       </c>
       <c r="P5">
-        <v>0.148625377093643</v>
+        <v>0.1434587604703784</v>
       </c>
       <c r="Q5">
-        <v>0.1080109278972222</v>
+        <v>1.655792628392</v>
       </c>
       <c r="R5">
-        <v>0.9720983510749999</v>
+        <v>14.902133655528</v>
       </c>
       <c r="S5">
-        <v>0.009656687517072406</v>
+        <v>0.1002099930227627</v>
       </c>
       <c r="T5">
-        <v>0.009656687517072406</v>
+        <v>0.1002099930227627</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,25 +776,25 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.3442069999999999</v>
+        <v>0.1485533333333333</v>
       </c>
       <c r="H6">
-        <v>1.032621</v>
+        <v>0.44566</v>
       </c>
       <c r="I6">
-        <v>0.9350266575876333</v>
+        <v>0.3014717770166836</v>
       </c>
       <c r="J6">
-        <v>0.9350266575876331</v>
+        <v>0.3014717770166836</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.48570233333333</v>
+        <v>9.579981</v>
       </c>
       <c r="N6">
-        <v>31.457107</v>
+        <v>28.739943</v>
       </c>
       <c r="O6">
-        <v>0.3451069547070303</v>
+        <v>0.2856968652430823</v>
       </c>
       <c r="P6">
-        <v>0.3451069547070303</v>
+        <v>0.2856968652430823</v>
       </c>
       <c r="Q6">
-        <v>3.609252143049666</v>
+        <v>1.42313811082</v>
       </c>
       <c r="R6">
-        <v>32.48326928744699</v>
+        <v>12.80824299738</v>
       </c>
       <c r="S6">
-        <v>0.3226842023699613</v>
+        <v>0.08612954165292801</v>
       </c>
       <c r="T6">
-        <v>0.3226842023699612</v>
+        <v>0.08612954165292801</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,25 +838,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.3442069999999999</v>
+        <v>0.1485533333333333</v>
       </c>
       <c r="H7">
-        <v>1.032621</v>
+        <v>0.44566</v>
       </c>
       <c r="I7">
-        <v>0.9350266575876333</v>
+        <v>0.3014717770166836</v>
       </c>
       <c r="J7">
-        <v>0.9350266575876331</v>
+        <v>0.3014717770166836</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>28.98719699999999</v>
       </c>
       <c r="O7">
-        <v>0.3180102760931818</v>
+        <v>0.2881547578255002</v>
       </c>
       <c r="P7">
-        <v>0.3180102760931818</v>
+        <v>0.2881547578255002</v>
       </c>
       <c r="Q7">
-        <v>3.325865372592999</v>
+        <v>1.435381579446667</v>
       </c>
       <c r="R7">
-        <v>29.93278835333699</v>
+        <v>12.91843421502</v>
       </c>
       <c r="S7">
-        <v>0.2973480855339282</v>
+        <v>0.08687052689746565</v>
       </c>
       <c r="T7">
-        <v>0.2973480855339282</v>
+        <v>0.08687052689746565</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,25 +900,25 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.3442069999999999</v>
+        <v>0.1485533333333333</v>
       </c>
       <c r="H8">
-        <v>1.032621</v>
+        <v>0.44566</v>
       </c>
       <c r="I8">
-        <v>0.9350266575876333</v>
+        <v>0.3014717770166836</v>
       </c>
       <c r="J8">
-        <v>0.9350266575876331</v>
+        <v>0.3014717770166836</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.719997666666665</v>
+        <v>9.479142000000001</v>
       </c>
       <c r="N8">
-        <v>17.159993</v>
+        <v>28.437426</v>
       </c>
       <c r="O8">
-        <v>0.1882573921061449</v>
+        <v>0.2826896164610391</v>
       </c>
       <c r="P8">
-        <v>0.1882573921061449</v>
+        <v>0.2826896164610391</v>
       </c>
       <c r="Q8">
-        <v>1.968863236850332</v>
+        <v>1.40815814124</v>
       </c>
       <c r="R8">
-        <v>17.71976913165299</v>
+        <v>12.67342327116</v>
       </c>
       <c r="S8">
-        <v>0.1760256801071731</v>
+        <v>0.08522294101867418</v>
       </c>
       <c r="T8">
-        <v>0.1760256801071731</v>
+        <v>0.08522294101867418</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.3442069999999999</v>
+        <v>0.1485533333333333</v>
       </c>
       <c r="H9">
-        <v>1.032621</v>
+        <v>0.44566</v>
       </c>
       <c r="I9">
-        <v>0.9350266575876333</v>
+        <v>0.3014717770166836</v>
       </c>
       <c r="J9">
-        <v>0.9350266575876331</v>
+        <v>0.3014717770166836</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.515821666666667</v>
+        <v>4.810455999999999</v>
       </c>
       <c r="N9">
-        <v>13.547465</v>
+        <v>14.431368</v>
       </c>
       <c r="O9">
-        <v>0.148625377093643</v>
+        <v>0.1434587604703784</v>
       </c>
       <c r="P9">
-        <v>0.148625377093643</v>
+        <v>0.1434587604703784</v>
       </c>
       <c r="Q9">
-        <v>1.554377428418333</v>
+        <v>0.7146092736533333</v>
       </c>
       <c r="R9">
-        <v>13.989396855765</v>
+        <v>6.431483462879999</v>
       </c>
       <c r="S9">
-        <v>0.1389686895765706</v>
+        <v>0.04324876744761574</v>
       </c>
       <c r="T9">
-        <v>0.1389686895765706</v>
+        <v>0.04324876744761576</v>
       </c>
     </row>
   </sheetData>
